--- a/TERZO ANNO/Sistema_impresa/Esercizi Sistema Impresa.xlsx
+++ b/TERZO ANNO/Sistema_impresa/Esercizi Sistema Impresa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="151">
   <si>
     <t>WILLY</t>
   </si>
@@ -396,6 +396,19 @@
     <t>Costo effettivo euro/kg</t>
   </si>
   <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>Svantaggioso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Determinare gli scostamenti elementari del costo della MAT del prodotto Z considerando che a consuntivo si sono avuti i
+seguenti valori: </t>
+  </si>
+  <si>
+    <t>Volume di produzione</t>
+  </si>
+  <si>
     <t>VERDI</t>
   </si>
   <si>
@@ -427,6 +440,36 @@
     <t>Volume effettivo (unità)</t>
   </si>
   <si>
+    <t>60000=A+B*9000</t>
+  </si>
+  <si>
+    <t>40000=A+B*4000</t>
+  </si>
+  <si>
+    <t>20000=B*5000</t>
+  </si>
+  <si>
+    <t>SGIV</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>TOTALE COSTI VARIABILI</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SGIF</t>
+  </si>
+  <si>
+    <t>TOTALE COSTI PRODUZIONE</t>
+  </si>
+  <si>
+    <t>Vantaggioso</t>
+  </si>
+  <si>
     <t>DKS</t>
   </si>
   <si>
@@ -446,9 +489,6 @@
   </si>
   <si>
     <t>BUDGET COSTI REPARTO TELAI</t>
-  </si>
-  <si>
-    <t>TOTALE COSTI VARIABILI</t>
   </si>
   <si>
     <t>MOI FISSA</t>
@@ -503,7 +543,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +552,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -522,8 +568,14 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border/>
     <border>
       <left style="thin">
@@ -622,11 +674,21 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -690,14 +752,14 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -712,11 +774,28 @@
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="4" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -3238,19 +3317,28 @@
       <c r="B59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="12">
+        <f>C56*(C36/F36)/C12</f>
+        <v>13486.62392</v>
+      </c>
     </row>
     <row r="60">
       <c r="B60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="12"/>
+      <c r="C60" s="12">
+        <f>C56*(D36/F36)/D12</f>
+        <v>10114.96794</v>
+      </c>
     </row>
     <row r="61">
       <c r="B61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="12">
+        <f>C56*(E36/F36)/E12</f>
+        <v>16858.2799</v>
+      </c>
     </row>
     <row r="62">
       <c r="C62" s="14"/>
@@ -3473,9 +3561,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="2.63"/>
     <col customWidth="1" min="2" max="2" width="33.75"/>
-    <col customWidth="1" min="3" max="3" width="9.38"/>
-    <col customWidth="1" min="4" max="5" width="8.38"/>
-    <col customWidth="1" min="6" max="6" width="7.5"/>
+    <col customWidth="1" min="3" max="3" width="10.63"/>
+    <col customWidth="1" min="4" max="4" width="9.38"/>
+    <col customWidth="1" min="5" max="5" width="17.63"/>
+    <col customWidth="1" min="6" max="6" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3721,19 +3810,43 @@
       <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28:E28" si="1">C3*C4*C11</f>
+        <v>57600</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="1"/>
+        <v>156600</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" ref="F28:F29" si="3">SUM(C28:E28)</f>
+        <v>294200</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="C29" s="12">
+        <f t="shared" ref="C29:E29" si="2">C5*C6*C11</f>
+        <v>144000</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="2"/>
+        <v>348000</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="3"/>
+        <v>612000</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="4" t="s">
@@ -3748,10 +3861,22 @@
       <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:E31" si="4">C8</f>
+        <v>40000</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="4"/>
+        <v>55000</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="4"/>
+        <v>70000</v>
+      </c>
+      <c r="F31" s="12">
+        <f>SUM(C31:E31)</f>
+        <v>165000</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="5" t="s">
@@ -3760,7 +3885,10 @@
       <c r="C32" s="38"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12">
+        <f>C9</f>
+        <v>80000</v>
+      </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
@@ -3769,7 +3897,10 @@
       <c r="C33" s="37"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="13">
+        <f>SUM(F28,F29,F31,F32)</f>
+        <v>1151200</v>
+      </c>
     </row>
     <row r="35">
       <c r="B35" s="10" t="s">
@@ -3797,64 +3928,148 @@
       <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="C37" s="12">
+        <f t="shared" ref="C37:E37" si="5">C11*C12</f>
+        <v>312000</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="5"/>
+        <v>430000</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="5"/>
+        <v>638000</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" ref="F37:F43" si="7">SUM(C37:E37)</f>
+        <v>1380000</v>
+      </c>
     </row>
     <row r="38">
       <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="C38" s="12">
+        <f t="shared" ref="C38:E38" si="6">-(C28)</f>
+        <v>-57600</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="6"/>
+        <v>-80000</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="6"/>
+        <v>-156600</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="7"/>
+        <v>-294200</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="C39" s="12">
+        <f t="shared" ref="C39:E39" si="8">-(C29)</f>
+        <v>-144000</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="8"/>
+        <v>-120000</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="8"/>
+        <v>-348000</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="7"/>
+        <v>-612000</v>
+      </c>
     </row>
     <row r="40">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="C40" s="12">
+        <f t="shared" ref="C40:E40" si="9">-(C37*C7)</f>
+        <v>-9360</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="9"/>
+        <v>-8600</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="9"/>
+        <v>-25520</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="7"/>
+        <v>-43480</v>
+      </c>
     </row>
     <row r="41">
       <c r="B41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="C41" s="12">
+        <f t="shared" ref="C41:E41" si="10">SUM(C37:C40)</f>
+        <v>101040</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="10"/>
+        <v>221400</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="10"/>
+        <v>107880</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="7"/>
+        <v>430320</v>
+      </c>
     </row>
     <row r="42">
       <c r="B42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="C42" s="12">
+        <f t="shared" ref="C42:E42" si="11">-(C31)</f>
+        <v>-40000</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="11"/>
+        <v>-55000</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="11"/>
+        <v>-70000</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" si="7"/>
+        <v>-165000</v>
+      </c>
     </row>
     <row r="43">
       <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="C43" s="12">
+        <f t="shared" ref="C43:E43" si="12">SUM(C41:C42)</f>
+        <v>61040</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="12"/>
+        <v>166400</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="12"/>
+        <v>37880</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="7"/>
+        <v>265320</v>
+      </c>
     </row>
     <row r="44">
       <c r="B44" s="5" t="s">
@@ -3863,7 +4078,10 @@
       <c r="C44" s="39"/>
       <c r="D44" s="40"/>
       <c r="E44" s="41"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="12">
+        <f t="shared" ref="F44:F45" si="13">-C9</f>
+        <v>-80000</v>
+      </c>
     </row>
     <row r="45">
       <c r="B45" s="5" t="s">
@@ -3872,7 +4090,10 @@
       <c r="C45" s="47"/>
       <c r="D45" s="43"/>
       <c r="E45" s="44"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="12">
+        <f t="shared" si="13"/>
+        <v>-65000</v>
+      </c>
     </row>
     <row r="46">
       <c r="B46" s="4" t="s">
@@ -3881,21 +4102,267 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13">
+        <f>SUM(F43:F45)</f>
+        <v>120320</v>
+      </c>
     </row>
     <row r="48">
       <c r="B48" s="10" t="s">
         <v>112</v>
       </c>
     </row>
+    <row r="49">
+      <c r="B49" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="14">
+        <f>(F31+F32+C10+130000)/(F41/F37)</f>
+        <v>1411042.945</v>
+      </c>
+      <c r="F49" s="26">
+        <f>1411042*((1380000/312000)/19.5)</f>
+        <v>320058.8363</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="49"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="12">
+        <f>C49*(C37/F37)/C12</f>
+        <v>16359.9182</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="12">
+        <f>C49*(D37/F37)/D12</f>
+        <v>20449.89775</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="12">
+        <f>C49*(E37/F37)/E12</f>
+        <v>29652.35174</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="12">
+        <f>2000*12</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="12">
+        <f>-C3*C4*2000</f>
+        <v>-7200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="12">
+        <f>-C5*C6*2000</f>
+        <v>-18000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="12">
+        <f>-C58*C7</f>
+        <v>-720</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="13">
+        <f>SUM(C61:C63)</f>
+        <v>-25920</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="50">
+        <f>C58+C64</f>
+        <v>-1920</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="12">
+        <f>E3*E4*E11</f>
+        <v>156600</v>
+      </c>
+      <c r="E70" s="51">
+        <f>F72/(F74*(E3*(1-F73)))</f>
+        <v>27192.98246</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="12">
+        <f>E3*E4*E70</f>
+        <v>146842.1053</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="12">
+        <f>E70*(E3*(1-F73))*E4</f>
+        <v>139500</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="6">
+        <v>155000.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="24"/>
+      <c r="C73" s="12"/>
+      <c r="E73" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" s="25">
+        <f>0.05</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="12">
+        <f>F72</f>
+        <v>155000</v>
+      </c>
+      <c r="E74" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="24"/>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="13">
+        <f t="shared" ref="C76:C77" si="14">C70-C71</f>
+        <v>9757.894737</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="13">
+        <f t="shared" si="14"/>
+        <v>7342.105263</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="13">
+        <f>C72-C74</f>
+        <v>-15500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79" s="13">
+        <f>C70-C74</f>
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B68:E68"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B15:E15"/>
@@ -3922,8 +4389,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="2.63"/>
-    <col customWidth="1" min="2" max="2" width="33.63"/>
-    <col customWidth="1" min="3" max="5" width="8.38"/>
+    <col customWidth="1" min="2" max="2" width="36.38"/>
+    <col customWidth="1" min="3" max="3" width="9.88"/>
+    <col customWidth="1" min="4" max="4" width="10.13"/>
+    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="6" max="6" width="9.88"/>
+    <col customWidth="1" min="8" max="8" width="14.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3931,7 +4402,7 @@
         <v>5.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
@@ -4070,32 +4541,32 @@
     </row>
     <row r="13">
       <c r="B13" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="35" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C19" s="6">
         <v>42.0</v>
@@ -4103,7 +4574,7 @@
     </row>
     <row r="20">
       <c r="B20" s="35" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C20" s="6">
         <v>25000.0</v>
@@ -4117,14 +4588,651 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" ref="C26:E26" si="1">C3*C4*C10</f>
+        <v>28800</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="1"/>
+        <v>83200</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" ref="F26:F30" si="3">SUM(C26:E26)</f>
+        <v>187000</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" ref="C27:E27" si="2">C5*C6*C10</f>
+        <v>144000</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="2"/>
+        <v>208000</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="3"/>
+        <v>412000</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28:E28" si="4">C5*$H$28*C10</f>
+        <v>14400</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="4"/>
+        <v>20800</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="3"/>
+        <v>41200</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="52">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="53"/>
+      <c r="B29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="12">
+        <f t="shared" ref="C29:E29" si="5">SUM(C26:C28)</f>
+        <v>187200</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="5"/>
+        <v>141000</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="5"/>
+        <v>312000</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="3"/>
+        <v>640200</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="18">
+        <v>24000.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:E30" si="6">C8</f>
+        <v>40000</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="6"/>
+        <v>55000</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="6"/>
+        <v>70000</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="3"/>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12">
+        <f>H29</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
+        <f>SUM(F29:F31)</f>
+        <v>829200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:E36" si="7">C10*C11</f>
+        <v>198000</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="7"/>
+        <v>277500</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="7"/>
+        <v>494000</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:F40" si="9">SUM(C36:E36)</f>
+        <v>969500</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" ref="C37:E37" si="8">-C26</f>
+        <v>-28800</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="8"/>
+        <v>-75000</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="8"/>
+        <v>-83200</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="9"/>
+        <v>-187000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" ref="C38:E38" si="10">-C27</f>
+        <v>-144000</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="10"/>
+        <v>-60000</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="10"/>
+        <v>-208000</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="9"/>
+        <v>-412000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" ref="C39:E39" si="11">-C36*C7</f>
+        <v>-7920</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="11"/>
+        <v>-8325</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="11"/>
+        <v>-9880</v>
+      </c>
+      <c r="F39" s="12">
+        <f t="shared" si="9"/>
+        <v>-26125</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" ref="C40:E40" si="12">-C28</f>
+        <v>-14400</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="12"/>
+        <v>-6000</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="12"/>
+        <v>-20800</v>
+      </c>
+      <c r="F40" s="12">
+        <f t="shared" si="9"/>
+        <v>-41200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" ref="C41:F41" si="13">SUM(C36:C40)</f>
+        <v>2880</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="13"/>
+        <v>128175</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="13"/>
+        <v>172120</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" si="13"/>
+        <v>303175</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" ref="C42:E42" si="14">-C8</f>
+        <v>-40000</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="14"/>
+        <v>-55000</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="14"/>
+        <v>-70000</v>
+      </c>
+      <c r="F42" s="12">
+        <f t="shared" ref="F42:F43" si="16">SUM(C42:E42)</f>
+        <v>-165000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" ref="C43:E43" si="15">SUM(C41:C42)</f>
+        <v>-37120</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="15"/>
+        <v>73175</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="15"/>
+        <v>102120</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="16"/>
+        <v>138175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="12">
+        <f>-F31</f>
+        <v>-24000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="12">
+        <f>-C9</f>
+        <v>-65000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="13">
+        <f>SUM(F43:F45)</f>
+        <v>49175</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="13">
+        <f>(ABS(F42)+ABS(F44)+ABS(F45))/(F41/F36)</f>
+        <v>812247.052</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12">
+        <f>$C$49*(C36/F36)/C11</f>
+        <v>10053.59941</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="12">
+        <f>C49*(D36/F36)/D11</f>
+        <v>12566.99926</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="12">
+        <f>C49*(E36/F36)/E11</f>
+        <v>21782.79871</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="12">
+        <f>1500*10</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="12"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="12">
+        <f>D3*D4*1500</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="12">
+        <f>D5*D6*1500</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="12">
+        <f>C58*D7</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="12">
+        <f>D5*H28*1500</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="12">
+        <f>SUM(C61:C64)</f>
+        <v>14550</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" s="45">
+        <f>C58-C65</f>
+        <v>450</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="12">
+        <f>E5*E6*E10</f>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="12">
+        <f>F73*E5*E6</f>
+        <v>200000</v>
+      </c>
+      <c r="E72" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F72" s="6">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="12">
+        <f>F73*E5*(1-F74)*E6</f>
+        <v>190000</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="6">
+        <v>25000.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="24"/>
+      <c r="C74" s="12"/>
+      <c r="E74" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="12">
+        <f>F72*F73*E5*(1-F74)</f>
+        <v>199500</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="24"/>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="13">
+        <f t="shared" ref="C77:C78" si="17">C71-C72</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="13">
+        <f t="shared" si="17"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="13">
+        <f>C73-C75</f>
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="13">
+        <f>C71-C75</f>
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C44:E46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B69:E69"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4151,34 +5259,34 @@
         <v>6.0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="48" t="s">
-        <v>127</v>
+      <c r="B2" s="57" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3">
-      <c r="B3" s="49"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="46" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="59">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="59">
         <f>2*1</f>
         <v>2</v>
       </c>
@@ -4198,7 +5306,7 @@
     </row>
     <row r="6">
       <c r="B6" s="21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C6" s="6">
         <f>(1/10*200000)/60000*(28000*5)</f>
@@ -4211,13 +5319,13 @@
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="50">
+        <v>145</v>
+      </c>
+      <c r="C7" s="59">
         <f>10*0.016</f>
         <v>0.16</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="59">
         <f>20*0.016</f>
         <v>0.32</v>
       </c>
@@ -4226,30 +5334,30 @@
       <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="59">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>46671.32667</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="59">
         <f t="shared" si="1"/>
         <v>93336.65333</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="48" t="s">
-        <v>132</v>
+      <c r="B10" s="57" t="s">
+        <v>146</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11">
-      <c r="B11" s="49"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="46" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E11" s="46" t="s">
         <v>22</v>
@@ -4259,15 +5367,15 @@
       <c r="B12" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="59">
         <f t="shared" ref="C12:D12" si="2">C4*200000</f>
         <v>800000</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="59">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="59">
         <f t="shared" ref="E12:E20" si="4">SUM(C12:D12)</f>
         <v>1200000</v>
       </c>
@@ -4276,93 +5384,93 @@
       <c r="B13" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="59">
         <f t="shared" ref="C13:D13" si="3">C5*200000</f>
         <v>100000</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="59">
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="59">
         <f t="shared" si="4"/>
         <v>300000</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="50">
+        <v>144</v>
+      </c>
+      <c r="C14" s="59">
         <f t="shared" ref="C14:D14" si="5">C6</f>
         <v>46666.66667</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="59">
         <f t="shared" si="5"/>
         <v>93333.33333</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="59">
         <f t="shared" si="4"/>
         <v>140000</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="50">
+        <v>145</v>
+      </c>
+      <c r="C15" s="59">
         <f t="shared" ref="C15:D15" si="6">C7*200000</f>
         <v>32000</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="59">
         <f t="shared" si="6"/>
         <v>64000</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="59">
         <f t="shared" si="4"/>
         <v>96000</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C16" s="50">
+        <v>135</v>
+      </c>
+      <c r="C16" s="59">
         <f t="shared" ref="C16:D16" si="7">SUM(C12:C15)</f>
         <v>978666.6667</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="59">
         <f t="shared" si="7"/>
         <v>757333.3333</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="59">
         <f t="shared" si="4"/>
         <v>1736000</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="46" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C17" s="7">
         <f>20000*5</f>
         <v>100000</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="50">
+      <c r="E17" s="59">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="46" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C18" s="7">
         <v>40000.0</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="50">
+      <c r="E18" s="59">
         <f t="shared" si="4"/>
         <v>40000</v>
       </c>
@@ -4375,31 +5483,31 @@
         <v>50000.0</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="50">
+      <c r="E19" s="59">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="46" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C20" s="7">
         <v>100000.0</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="50">
+      <c r="E20" s="59">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50">
+        <v>150</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59">
         <f>SUM(E12:E20)</f>
         <v>3762000</v>
       </c>

--- a/TERZO ANNO/Sistema_impresa/Esercizi Sistema Impresa.xlsx
+++ b/TERZO ANNO/Sistema_impresa/Esercizi Sistema Impresa.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="4) BIANCHI" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="5) VERDI" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="DKS" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="SIMULAZIONE ESAME" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="184">
   <si>
     <t>WILLY</t>
   </si>
@@ -501,6 +502,109 @@
   </si>
   <si>
     <t>TOTALE COSTI INDUSTRIALI</t>
+  </si>
+  <si>
+    <t>TBS</t>
+  </si>
+  <si>
+    <t>LINEE DI PRODOTTO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Costi variabili commerciali</t>
+  </si>
+  <si>
+    <t>Costi industriali fissi</t>
+  </si>
+  <si>
+    <t>Costi commerciali fissi</t>
+  </si>
+  <si>
+    <t>Costi generali</t>
+  </si>
+  <si>
+    <t>Volume produzione/vendita</t>
+  </si>
+  <si>
+    <t>Prezzo unitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Si costruisca il Budget di produzione; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Si costruisca il Budget Economico 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Si determini il fatturato di pareggio ed i corrispondenti volumi di vendita; 
+</t>
+  </si>
+  <si>
+    <t>4. Calcolare gli scostamenti elementari del costo di MOD di A sulla base dei seguenti dati a consuntivo: volume
+effettivo 9.000, consumo effettivo 1,9 ore, costo orario effettivo 46,00 €.</t>
+  </si>
+  <si>
+    <t>Costi variabili industriali</t>
+  </si>
+  <si>
+    <t>Costi fissi industriali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>COSTI VARIABILI COMMERCIALI</t>
+  </si>
+  <si>
+    <t>COSTI COMMERCIALI DIRETTI</t>
+  </si>
+  <si>
+    <t>COSTI GENERALI</t>
+  </si>
+  <si>
+    <t>Alternativa</t>
+  </si>
+  <si>
+    <t>FP=a/1-k</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>Volume effettivo</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Consumo effettivo ore</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>Costo orario effettivo</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
 </sst>
 </file>
@@ -688,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -805,6 +909,13 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -834,6 +945,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1855,6 +1970,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B68:E68"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B14:E14"/>
@@ -1862,11 +1982,6 @@
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B68:E68"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3541,8 +3656,8 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C32:E32"/>
     <mergeCell ref="C43:E44"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -3553,6 +3668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4120,7 +4236,7 @@
         <f>(F31+F32+C10+130000)/(F41/F37)</f>
         <v>1411042.945</v>
       </c>
-      <c r="F49" s="26">
+      <c r="F49" s="14">
         <f>1411042*((1380000/312000)/19.5)</f>
         <v>320058.8363</v>
       </c>
@@ -4355,25 +4471,28 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
+  <pageSetup paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -5221,18 +5340,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C44:E46"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C44:E46"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B69:E69"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5523,4 +5642,728 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="2.63"/>
+    <col customWidth="1" min="2" max="2" width="28.0"/>
+    <col customWidth="1" min="5" max="5" width="17.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="C2" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50000.0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>40000.0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="6">
+        <v>20000.0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>22000.0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20000.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="7">
+        <v>150000.0</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10000.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>25000.0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>12000.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="17">
+        <v>150.0</v>
+      </c>
+      <c r="D13" s="17">
+        <v>120.0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22:E22" si="1">C4*C5*C12</f>
+        <v>300000</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="1"/>
+        <v>625000</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" ref="F22:F25" si="3">SUM(C22:E22)</f>
+        <v>1285000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" ref="C23:E23" si="2">C6*C7*C12</f>
+        <v>900000</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="2"/>
+        <v>1687500</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>1620000</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="3"/>
+        <v>4207500</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:E24" si="4">SUM(C22:C23)</f>
+        <v>1200000</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="4"/>
+        <v>2312500</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="4"/>
+        <v>1980000</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>5492500</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ref="C25:E25" si="5">C9</f>
+        <v>50000</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="5"/>
+        <v>40000</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="5"/>
+        <v>60000</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13">
+        <f>SUM(F24:F25)</f>
+        <v>5642500</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:E30" si="6">C12*C13</f>
+        <v>1500000</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="6"/>
+        <v>3000000</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="6"/>
+        <v>2100000</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" ref="F30:F37" si="8">SUM(C30:E30)</f>
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:E31" si="7">-C4*C5*C12</f>
+        <v>-300000</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="7"/>
+        <v>-625000</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="7"/>
+        <v>-360000</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="8"/>
+        <v>-1285000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:E32" si="9">-C6*C7*C12</f>
+        <v>-900000</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="9"/>
+        <v>-1687500</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="9"/>
+        <v>-1620000</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="8"/>
+        <v>-4207500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" ref="C33:E33" si="10">-C8*C12</f>
+        <v>-20000</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="10"/>
+        <v>-50000</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="10"/>
+        <v>-36000</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="8"/>
+        <v>-106000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" ref="C34:E34" si="11">SUM(C30:C33)</f>
+        <v>280000</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="11"/>
+        <v>637500</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="11"/>
+        <v>84000</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="8"/>
+        <v>1001500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="12">
+        <f t="shared" ref="C35:E35" si="12">-C9</f>
+        <v>-50000</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="12"/>
+        <v>-40000</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="12"/>
+        <v>-60000</v>
+      </c>
+      <c r="F35" s="12">
+        <f t="shared" si="8"/>
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:E36" si="13">-C10</f>
+        <v>-20000</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="13"/>
+        <v>-22000</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="13"/>
+        <v>-20000</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" si="8"/>
+        <v>-62000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" ref="C37:E37" si="14">SUM(C34:C36)</f>
+        <v>210000</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="14"/>
+        <v>575500</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="14"/>
+        <v>4000</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="8"/>
+        <v>789500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="12">
+        <f>-C11</f>
+        <v>-150000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="13">
+        <f>SUM(F37:F38)</f>
+        <v>639500</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="13">
+        <f>ABS(F35+F36+F38)/(F34/F30)</f>
+        <v>2385621.568</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="59">
+        <f>F34/F30</f>
+        <v>0.1517424242</v>
+      </c>
+      <c r="L42" s="59">
+        <f>ABS(F35+F36+F38)/K42</f>
+        <v>2385621.568</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="13">
+        <f>C42*(C30/F30)/C13</f>
+        <v>3614.578133</v>
+      </c>
+      <c r="E44" s="61">
+        <f>C12/SUM($C$12:$E$12)</f>
+        <v>0.2127659574</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="13">
+        <f>C42*(D30/F30)/D13</f>
+        <v>9036.445332</v>
+      </c>
+      <c r="E45" s="61">
+        <f>D12/SUM($C$12:$E$12)</f>
+        <v>0.5319148936</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="13">
+        <f>C42*(E30/F30)/E13</f>
+        <v>4337.493759</v>
+      </c>
+      <c r="E46" s="61">
+        <f>E12/SUM($C$12:$E$12)</f>
+        <v>0.2553191489</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="12">
+        <f>C6*C7*C12</f>
+        <v>900000</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="17">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="12">
+        <f>F50*C6*C7</f>
+        <v>810000</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="12">
+        <f>F50*C7*F51</f>
+        <v>769500</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="17">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="62"/>
+      <c r="C53" s="12"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="12">
+        <f>F50*F51*F52</f>
+        <v>786600</v>
+      </c>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="62"/>
+      <c r="C55" s="12"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" ref="C56:C57" si="15">C50-C51</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="15"/>
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="12">
+        <f>C52-C54</f>
+        <v>-17100</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C59" s="12">
+        <f>C50-C54</f>
+        <v>113400</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:E20"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>